--- a/Import_Excel_SqlDB_MVC/Uploads/test.xlsx
+++ b/Import_Excel_SqlDB_MVC/Uploads/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Hero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA10A6-C8BD-47D7-8F1C-4F2E62050082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2967088-5C73-43BD-96CE-E93C57D1A080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94B367EF-57E2-42C1-8300-6B23748400B6}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{94B367EF-57E2-42C1-8300-6B23748400B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Kashyap</t>
   </si>
   <si>
-    <t>CustomerId</t>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07142C76-A25B-456C-9515-26431D54E7C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
